--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/流动资产合计.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/流动资产合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,6 +1842,272 @@
         <v>3529.36</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>34427.66</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9115.120000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1951.23</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20084.05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>41273.64</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4497.34</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25824.98</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4002.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4240.34</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2749.21</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1639.92</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6269.25</v>
+      </c>
+      <c r="O11" t="n">
+        <v>23263.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2158.69</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3389.01</v>
+      </c>
+      <c r="R11" t="n">
+        <v>16276.92</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7189.01</v>
+      </c>
+      <c r="T11" t="n">
+        <v>53349.38</v>
+      </c>
+      <c r="U11" t="n">
+        <v>8390.049999999999</v>
+      </c>
+      <c r="V11" t="n">
+        <v>31288.97</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5417.93</v>
+      </c>
+      <c r="X11" t="n">
+        <v>38743.27</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>60255.22</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>4118.86</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>19328.93</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3507.81</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12484.67</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7124.94</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>751807.17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>98880.62</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>38805.02</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8271.33</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12024.29</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1451.74</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>27164.37</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>21887.48</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41993.29</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2948.2</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10349.95</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>31749.28</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>3915.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>38620.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9987.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1087.6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>22460.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45399.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4820.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>28080</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4203.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4351.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3485.6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1772.6</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6584.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>26975.3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2286.9</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3660.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>17299.5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8142.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>59908.8</v>
+      </c>
+      <c r="U12" t="n">
+        <v>7351.4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>34494.1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5988.8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>42406.7</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>73878</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>4171</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19953.9</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>4054.8</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12888.9</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7085</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>807645.9</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>107487.3</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>39921.3</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8401</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13201</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1578.6</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>25519.7</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>13391.7</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>45573.7</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3351.3</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11891.7</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>32162.7</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>3763.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
